--- a/hasil_praktikum_CLT_label.xlsx
+++ b/hasil_praktikum_CLT_label.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 46.8278</t>
+          <t>Rataan Sampel 1: 49.9502</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46.8278</v>
+        <v>49.9502</v>
       </c>
       <c r="E2" t="n">
         <v>50.1933</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3655</v>
+        <v>0.2432</v>
       </c>
     </row>
     <row r="3">
@@ -500,21 +500,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 54.0666
-Rataan Sampel 2: 49.1843
-Rataan Sampel 3: 51.6387
-Rataan Sampel 4: 53.1638
-Rataan Sampel 5: 53.5226</t>
+          <t>Rataan Sampel 1: 49.2619
+Rataan Sampel 2: 52.0192
+Rataan Sampel 3: 48.6844
+Rataan Sampel 4: 48.0757
+Rataan Sampel 5: 47.915</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52.3152</v>
+        <v>49.1913</v>
       </c>
       <c r="E3" t="n">
         <v>50.1933</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1219</v>
+        <v>1.0021</v>
       </c>
     </row>
     <row r="4">
@@ -528,26 +528,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 49.5714
-Rataan Sampel 2: 48.9217
-Rataan Sampel 3: 50.8078
-Rataan Sampel 4: 46.0591
-Rataan Sampel 5: 51.4382
-Rataan Sampel 6: 49.2854
-Rataan Sampel 7: 54.3084
-Rataan Sampel 8: 47.3402
-Rataan Sampel 9: 46.4828
-Rataan Sampel 10: 47.9197</t>
+          <t>Rataan Sampel 1: 48.8936
+Rataan Sampel 2: 51.7797
+Rataan Sampel 3: 51.4323
+Rataan Sampel 4: 45.7688
+Rataan Sampel 5: 47.7867
+Rataan Sampel 6: 47.7884
+Rataan Sampel 7: 51.4859
+Rataan Sampel 8: 48.88
+Rataan Sampel 9: 48.891
+Rataan Sampel 10: 49.3464</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49.2135</v>
+        <v>49.2053</v>
       </c>
       <c r="E4" t="n">
         <v>50.1933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9799</v>
+        <v>0.9881</v>
       </c>
     </row>
     <row r="5">
@@ -561,36 +561,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 47.6175
-Rataan Sampel 2: 47.7084
-Rataan Sampel 3: 51.9218
-Rataan Sampel 4: 48.2111
-Rataan Sampel 5: 50.8012
-Rataan Sampel 6: 46.2726
-Rataan Sampel 7: 51.1713
-Rataan Sampel 8: 49.4564
-Rataan Sampel 9: 46.7647
-Rataan Sampel 10: 48.4602
-Rataan Sampel 11: 50.5475
-Rataan Sampel 12: 47.0881
-Rataan Sampel 13: 46.668
-Rataan Sampel 14: 48.2729
-Rataan Sampel 15: 49.9548
-Rataan Sampel 16: 50.8049
-Rataan Sampel 17: 50.7559
-Rataan Sampel 18: 52.3859
-Rataan Sampel 19: 46.5188
-Rataan Sampel 20: 48.4638</t>
+          <t>Rataan Sampel 1: 49.0218
+Rataan Sampel 2: 50.565
+Rataan Sampel 3: 50.9597
+Rataan Sampel 4: 50.6981
+Rataan Sampel 5: 49.1737
+Rataan Sampel 6: 47.6599
+Rataan Sampel 7: 49.8411
+Rataan Sampel 8: 53.559
+Rataan Sampel 9: 46.9552
+Rataan Sampel 10: 54.706
+Rataan Sampel 11: 51.597
+Rataan Sampel 12: 51.1683
+Rataan Sampel 13: 48.023
+Rataan Sampel 14: 46.9411
+Rataan Sampel 15: 46.739
+Rataan Sampel 16: 48.3743
+Rataan Sampel 17: 46.8383
+Rataan Sampel 18: 50.1274
+Rataan Sampel 19: 47.9122
+Rataan Sampel 20: 47.7087</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48.9923</v>
+        <v>49.4284</v>
       </c>
       <c r="E5" t="n">
         <v>50.1933</v>
       </c>
       <c r="F5" t="n">
-        <v>1.201</v>
+        <v>0.7649</v>
       </c>
     </row>
     <row r="6">
@@ -604,56 +604,56 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 50.3946
-Rataan Sampel 2: 50.9204
-Rataan Sampel 3: 51.2428
-Rataan Sampel 4: 49.3127
-Rataan Sampel 5: 51.7112
-Rataan Sampel 6: 50.2192
-Rataan Sampel 7: 52.3371
-Rataan Sampel 8: 49.3956
-Rataan Sampel 9: 50.6659
-Rataan Sampel 10: 50.342
-Rataan Sampel 11: 50.7612
-Rataan Sampel 12: 49.1692
-Rataan Sampel 13: 48.8588
-Rataan Sampel 14: 51.6041
-Rataan Sampel 15: 49.5363
-Rataan Sampel 16: 50.8333
-Rataan Sampel 17: 50.9062
-Rataan Sampel 18: 49.3302
-Rataan Sampel 19: 46.6483
-Rataan Sampel 20: 55.9811
-Rataan Sampel 21: 47.7196
-Rataan Sampel 22: 51.6494
-Rataan Sampel 23: 49.8094
-Rataan Sampel 24: 52.601
-Rataan Sampel 25: 49.4501
-Rataan Sampel 26: 48.3341
-Rataan Sampel 27: 53.8384
-Rataan Sampel 28: 54.3446
-Rataan Sampel 29: 47.5184
-Rataan Sampel 30: 49.3072
-Rataan Sampel 31: 46.7231
-Rataan Sampel 32: 50.2661
-Rataan Sampel 33: 48.3335
-Rataan Sampel 34: 49.1386
-Rataan Sampel 35: 49.8138
-Rataan Sampel 36: 52.0917
-Rataan Sampel 37: 48.9568
-Rataan Sampel 38: 50.7673
-Rataan Sampel 39: 50.6358
-Rataan Sampel 40: 51.4122</t>
+          <t>Rataan Sampel 1: 47.9468
+Rataan Sampel 2: 49.366
+Rataan Sampel 3: 48.5542
+Rataan Sampel 4: 52.7461
+Rataan Sampel 5: 50.0634
+Rataan Sampel 6: 51.0339
+Rataan Sampel 7: 52.008
+Rataan Sampel 8: 52.6525
+Rataan Sampel 9: 51.2914
+Rataan Sampel 10: 49.6391
+Rataan Sampel 11: 54.6884
+Rataan Sampel 12: 47.8261
+Rataan Sampel 13: 52.1883
+Rataan Sampel 14: 49.4583
+Rataan Sampel 15: 53.5072
+Rataan Sampel 16: 48.9532
+Rataan Sampel 17: 49.7837
+Rataan Sampel 18: 54.2355
+Rataan Sampel 19: 52.2617
+Rataan Sampel 20: 46.5671
+Rataan Sampel 21: 48.8595
+Rataan Sampel 22: 50.8574
+Rataan Sampel 23: 51.6608
+Rataan Sampel 24: 52.5397
+Rataan Sampel 25: 50.2244
+Rataan Sampel 26: 50.6102
+Rataan Sampel 27: 51.725
+Rataan Sampel 28: 49.8866
+Rataan Sampel 29: 51.3212
+Rataan Sampel 30: 52.2413
+Rataan Sampel 31: 52.3473
+Rataan Sampel 32: 46.2601
+Rataan Sampel 33: 51.7538
+Rataan Sampel 34: 48.505
+Rataan Sampel 35: 51.6218
+Rataan Sampel 36: 46.1885
+Rataan Sampel 37: 46.9299
+Rataan Sampel 38: 46.9652
+Rataan Sampel 39: 48.3027
+Rataan Sampel 40: 51.1654</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50.322</v>
+        <v>50.3684</v>
       </c>
       <c r="E6" t="n">
         <v>50.1933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1287</v>
+        <v>0.1751</v>
       </c>
     </row>
     <row r="7">
@@ -667,90 +667,189 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 50.5553
-Rataan Sampel 2: 52.3411
-Rataan Sampel 3: 49.6733
-Rataan Sampel 4: 49.4718
-Rataan Sampel 5: 51.3213
-Rataan Sampel 6: 52.5654
-Rataan Sampel 7: 51.3859
-Rataan Sampel 8: 48.8241
-Rataan Sampel 9: 53.7201
-Rataan Sampel 10: 50.1344
-Rataan Sampel 11: 51.5046
-Rataan Sampel 12: 49.5994
-Rataan Sampel 13: 50.393
-Rataan Sampel 14: 50.0809
-Rataan Sampel 15: 51.7783
-Rataan Sampel 16: 49.5067
-Rataan Sampel 17: 47.08
-Rataan Sampel 18: 49.0462
-Rataan Sampel 19: 41.7914
-Rataan Sampel 20: 50.0693
-Rataan Sampel 21: 49.7032
-Rataan Sampel 22: 47.9423
-Rataan Sampel 23: 47.8125
-Rataan Sampel 24: 53.9537
-Rataan Sampel 25: 52.846
-Rataan Sampel 26: 51.7368
-Rataan Sampel 27: 49.0412
-Rataan Sampel 28: 50.3614
-Rataan Sampel 29: 48.9101
-Rataan Sampel 30: 51.8609
-Rataan Sampel 31: 48.6505
-Rataan Sampel 32: 48.8229
-Rataan Sampel 33: 48.5903
-Rataan Sampel 34: 47.9208
-Rataan Sampel 35: 51.7618
-Rataan Sampel 36: 49.545
-Rataan Sampel 37: 50.084
-Rataan Sampel 38: 46.9255
-Rataan Sampel 39: 51.2371
-Rataan Sampel 40: 53.2617
-Rataan Sampel 41: 47.8247
-Rataan Sampel 42: 48.6308
-Rataan Sampel 43: 51.2295
-Rataan Sampel 44: 48.7961
-Rataan Sampel 45: 52.7417
-Rataan Sampel 46: 51.9024
-Rataan Sampel 47: 51.375
-Rataan Sampel 48: 51.071
-Rataan Sampel 49: 49.4614
-Rataan Sampel 50: 50.3669</t>
+          <t>Rataan Sampel 1: 49.7105
+Rataan Sampel 2: 50.6475
+Rataan Sampel 3: 52.0241
+Rataan Sampel 4: 49.6364
+Rataan Sampel 5: 51.5107
+Rataan Sampel 6: 49.8405
+Rataan Sampel 7: 47.2772
+Rataan Sampel 8: 50.2699
+Rataan Sampel 9: 51.2149
+Rataan Sampel 10: 48.5597
+Rataan Sampel 11: 52.0144
+Rataan Sampel 12: 51.7713
+Rataan Sampel 13: 51.0624
+Rataan Sampel 14: 48.2029
+Rataan Sampel 15: 50.2022
+Rataan Sampel 16: 52.9798
+Rataan Sampel 17: 49.415
+Rataan Sampel 18: 51.5155
+Rataan Sampel 19: 48.6609
+Rataan Sampel 20: 48.5264
+Rataan Sampel 21: 52.5303
+Rataan Sampel 22: 47.796
+Rataan Sampel 23: 49.4823
+Rataan Sampel 24: 50.1735
+Rataan Sampel 25: 51.3538
+Rataan Sampel 26: 48.3766
+Rataan Sampel 27: 48.4253
+Rataan Sampel 28: 52.4353
+Rataan Sampel 29: 49.9066
+Rataan Sampel 30: 52.6051
+Rataan Sampel 31: 48.6853
+Rataan Sampel 32: 48.0211
+Rataan Sampel 33: 51.0797
+Rataan Sampel 34: 49.6654
+Rataan Sampel 35: 48.7229
+Rataan Sampel 36: 50.4403
+Rataan Sampel 37: 49.7807
+Rataan Sampel 38: 49.5465
+Rataan Sampel 39: 49.9188
+Rataan Sampel 40: 49.807
+Rataan Sampel 41: 49.6193
+Rataan Sampel 42: 48.7677
+Rataan Sampel 43: 53.5149
+Rataan Sampel 44: 50.5525
+Rataan Sampel 45: 47.9819
+Rataan Sampel 46: 51.1823
+Rataan Sampel 47: 49.9985
+Rataan Sampel 48: 47.9583
+Rataan Sampel 49: 46.6822
+Rataan Sampel 50: 53.4039</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50.1042</v>
+        <v>50.0691</v>
       </c>
       <c r="E7" t="n">
         <v>50.1933</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0891</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Data2</t>
+          <t>Data1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 108.8237</t>
+          <t>Rataan Sampel 1: 52.7928
+Rataan Sampel 2: 49.8177
+Rataan Sampel 3: 50.7199
+Rataan Sampel 4: 50.2247
+Rataan Sampel 5: 49.1229
+Rataan Sampel 6: 47.3857
+Rataan Sampel 7: 47.2647
+Rataan Sampel 8: 48.4645
+Rataan Sampel 9: 47.5737
+Rataan Sampel 10: 50.5703
+Rataan Sampel 11: 49.7113
+Rataan Sampel 12: 50.0047
+Rataan Sampel 13: 51.8237
+Rataan Sampel 14: 52.6591
+Rataan Sampel 15: 52.8996
+Rataan Sampel 16: 51.3425
+Rataan Sampel 17: 49.6841
+Rataan Sampel 18: 51.6929
+Rataan Sampel 19: 49.2554
+Rataan Sampel 20: 49.3347
+Rataan Sampel 21: 50.5258
+Rataan Sampel 22: 48.2591
+Rataan Sampel 23: 49.5833
+Rataan Sampel 24: 50.9077
+Rataan Sampel 25: 55.5536
+Rataan Sampel 26: 47.6667
+Rataan Sampel 27: 50.8588
+Rataan Sampel 28: 48.6789
+Rataan Sampel 29: 49.4428
+Rataan Sampel 30: 53.7991
+Rataan Sampel 31: 51.667
+Rataan Sampel 32: 53.2311
+Rataan Sampel 33: 51.2261
+Rataan Sampel 34: 49.2627
+Rataan Sampel 35: 49.5558
+Rataan Sampel 36: 52.8003
+Rataan Sampel 37: 51.9048
+Rataan Sampel 38: 54.8361
+Rataan Sampel 39: 48.6882
+Rataan Sampel 40: 47.2544
+Rataan Sampel 41: 49.7252
+Rataan Sampel 42: 50.0662
+Rataan Sampel 43: 47.3067
+Rataan Sampel 44: 49.3734
+Rataan Sampel 45: 54.2278
+Rataan Sampel 46: 51.4894
+Rataan Sampel 47: 50.1133
+Rataan Sampel 48: 51.4601
+Rataan Sampel 49: 50.2029
+Rataan Sampel 50: 46.8811
+Rataan Sampel 51: 51.9208
+Rataan Sampel 52: 50.239
+Rataan Sampel 53: 51.0587
+Rataan Sampel 54: 49.2987
+Rataan Sampel 55: 54.6783
+Rataan Sampel 56: 52.2202
+Rataan Sampel 57: 51.7782
+Rataan Sampel 58: 50.6829
+Rataan Sampel 59: 49.8283
+Rataan Sampel 60: 49.2339
+Rataan Sampel 61: 50.2266
+Rataan Sampel 62: 54.1241
+Rataan Sampel 63: 43.8139
+Rataan Sampel 64: 53.0781
+Rataan Sampel 65: 52.0749
+Rataan Sampel 66: 51.3681
+Rataan Sampel 67: 47.3065
+Rataan Sampel 68: 49.1278
+Rataan Sampel 69: 50.3278
+Rataan Sampel 70: 48.9629
+Rataan Sampel 71: 49.165
+Rataan Sampel 72: 53.8016
+Rataan Sampel 73: 53.4221
+Rataan Sampel 74: 50.5533
+Rataan Sampel 75: 51.8721
+Rataan Sampel 76: 48.0195
+Rataan Sampel 77: 47.9335
+Rataan Sampel 78: 52.2711
+Rataan Sampel 79: 48.9772
+Rataan Sampel 80: 48.2935
+Rataan Sampel 81: 50.8986
+Rataan Sampel 82: 47.0839
+Rataan Sampel 83: 48.9112
+Rataan Sampel 84: 50.2682
+Rataan Sampel 85: 47.442
+Rataan Sampel 86: 52.672
+Rataan Sampel 87: 46.5675
+Rataan Sampel 88: 49.5485
+Rataan Sampel 89: 51.1084
+Rataan Sampel 90: 51.5098
+Rataan Sampel 91: 49.5617
+Rataan Sampel 92: 49.8358
+Rataan Sampel 93: 52.0521
+Rataan Sampel 94: 47.732
+Rataan Sampel 95: 49.5175
+Rataan Sampel 96: 50.3051
+Rataan Sampel 97: 48.6217
+Rataan Sampel 98: 51.5652
+Rataan Sampel 99: 49.9511
+Rataan Sampel 100: 52.2044</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>108.8237</v>
+        <v>50.3191</v>
       </c>
       <c r="E8" t="n">
-        <v>101.4167</v>
+        <v>50.1933</v>
       </c>
       <c r="F8" t="n">
-        <v>7.4069</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="9">
@@ -760,25 +859,21 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 108.1876
-Rataan Sampel 2: 93.3951
-Rataan Sampel 3: 108.5734
-Rataan Sampel 4: 104.0542
-Rataan Sampel 5: 102.5781</t>
+          <t>Rataan Sampel 1: 108.3415</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>103.3577</v>
+        <v>108.3415</v>
       </c>
       <c r="E9" t="n">
         <v>101.4167</v>
       </c>
       <c r="F9" t="n">
-        <v>1.941</v>
+        <v>6.9248</v>
       </c>
     </row>
     <row r="10">
@@ -788,30 +883,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 106.0944
-Rataan Sampel 2: 99.374
-Rataan Sampel 3: 106.9301
-Rataan Sampel 4: 94.4264
-Rataan Sampel 5: 104.5452
-Rataan Sampel 6: 103.5452
-Rataan Sampel 7: 100.7764
-Rataan Sampel 8: 105.898
-Rataan Sampel 9: 108.4851
-Rataan Sampel 10: 100.4011</t>
+          <t>Rataan Sampel 1: 104.4441
+Rataan Sampel 2: 111.7878
+Rataan Sampel 3: 111.1794
+Rataan Sampel 4: 98.7792
+Rataan Sampel 5: 106.0196</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>103.0476</v>
+        <v>106.442</v>
       </c>
       <c r="E10" t="n">
         <v>101.4167</v>
       </c>
       <c r="F10" t="n">
-        <v>1.6309</v>
+        <v>5.0253</v>
       </c>
     </row>
     <row r="11">
@@ -821,40 +911,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 104.6921
-Rataan Sampel 2: 99.2008
-Rataan Sampel 3: 105.4806
-Rataan Sampel 4: 93.2866
-Rataan Sampel 5: 103.0289
-Rataan Sampel 6: 98.4225
-Rataan Sampel 7: 93.2006
-Rataan Sampel 8: 107.7731
-Rataan Sampel 9: 106.4738
-Rataan Sampel 10: 111.0568
-Rataan Sampel 11: 100.2629
-Rataan Sampel 12: 106.8874
-Rataan Sampel 13: 104.7048
-Rataan Sampel 14: 98.4397
-Rataan Sampel 15: 103.2886
-Rataan Sampel 16: 100.7699
-Rataan Sampel 17: 97.3759
-Rataan Sampel 18: 110.1882
-Rataan Sampel 19: 113.4541
-Rataan Sampel 20: 103.5987</t>
+          <t>Rataan Sampel 1: 99.152
+Rataan Sampel 2: 95.9872
+Rataan Sampel 3: 99.3468
+Rataan Sampel 4: 96.6861
+Rataan Sampel 5: 100.0166
+Rataan Sampel 6: 105.1972
+Rataan Sampel 7: 106.662
+Rataan Sampel 8: 99.8162
+Rataan Sampel 9: 94.714
+Rataan Sampel 10: 98.9722</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103.0793</v>
+        <v>99.655</v>
       </c>
       <c r="E11" t="n">
         <v>101.4167</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6626</v>
+        <v>1.7617</v>
       </c>
     </row>
     <row r="12">
@@ -864,60 +944,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 105.5067
-Rataan Sampel 2: 100.678
-Rataan Sampel 3: 100.053
-Rataan Sampel 4: 94.9017
-Rataan Sampel 5: 101.526
-Rataan Sampel 6: 97.0394
-Rataan Sampel 7: 103.5761
-Rataan Sampel 8: 99.3522
-Rataan Sampel 9: 101.0389
-Rataan Sampel 10: 103.1333
-Rataan Sampel 11: 97.1217
-Rataan Sampel 12: 107.52
-Rataan Sampel 13: 103.3494
-Rataan Sampel 14: 98.9519
-Rataan Sampel 15: 104.6466
-Rataan Sampel 16: 106.9537
-Rataan Sampel 17: 97.1819
-Rataan Sampel 18: 93.2203
-Rataan Sampel 19: 104.732
-Rataan Sampel 20: 100.9678
-Rataan Sampel 21: 95.3896
-Rataan Sampel 22: 97.0084
-Rataan Sampel 23: 104.164
-Rataan Sampel 24: 104.7866
-Rataan Sampel 25: 98.918
-Rataan Sampel 26: 100.5433
-Rataan Sampel 27: 93.1013
-Rataan Sampel 28: 99.9717
-Rataan Sampel 29: 104.566
-Rataan Sampel 30: 101.5905
-Rataan Sampel 31: 97.6956
-Rataan Sampel 32: 110.0119
-Rataan Sampel 33: 105.8827
-Rataan Sampel 34: 99.074
-Rataan Sampel 35: 107.3903
-Rataan Sampel 36: 106.6209
-Rataan Sampel 37: 106.5868
-Rataan Sampel 38: 103.1106
-Rataan Sampel 39: 99.6911
-Rataan Sampel 40: 100.2932</t>
+          <t>Rataan Sampel 1: 109.5573
+Rataan Sampel 2: 97.3844
+Rataan Sampel 3: 103.207
+Rataan Sampel 4: 96.6432
+Rataan Sampel 5: 98.7176
+Rataan Sampel 6: 99.4374
+Rataan Sampel 7: 102.2483
+Rataan Sampel 8: 101.416
+Rataan Sampel 9: 98.1209
+Rataan Sampel 10: 103.4944
+Rataan Sampel 11: 106.0046
+Rataan Sampel 12: 101.2857
+Rataan Sampel 13: 94.4426
+Rataan Sampel 14: 95.1915
+Rataan Sampel 15: 101.4285
+Rataan Sampel 16: 108.7081
+Rataan Sampel 17: 100.4848
+Rataan Sampel 18: 108.1007
+Rataan Sampel 19: 102.304
+Rataan Sampel 20: 97.9673</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>101.4462</v>
+        <v>101.3072</v>
       </c>
       <c r="E12" t="n">
         <v>101.4167</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0295</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="13">
@@ -927,122 +987,256 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 93.2837
-Rataan Sampel 2: 102.7515
-Rataan Sampel 3: 104.6392
-Rataan Sampel 4: 95.3972
-Rataan Sampel 5: 98.446
-Rataan Sampel 6: 98.6243
-Rataan Sampel 7: 102.6241
-Rataan Sampel 8: 104.4303
-Rataan Sampel 9: 105.4559
-Rataan Sampel 10: 103.9783
-Rataan Sampel 11: 99.8514
-Rataan Sampel 12: 103.1793
-Rataan Sampel 13: 104.3993
-Rataan Sampel 14: 104.9476
-Rataan Sampel 15: 101.0328
-Rataan Sampel 16: 106.5701
-Rataan Sampel 17: 105.1527
-Rataan Sampel 18: 99.9605
-Rataan Sampel 19: 104.4804
-Rataan Sampel 20: 104.8286
-Rataan Sampel 21: 112.4746
-Rataan Sampel 22: 110.1501
-Rataan Sampel 23: 93.9813
-Rataan Sampel 24: 107.3426
-Rataan Sampel 25: 101.3437
-Rataan Sampel 26: 99.8112
-Rataan Sampel 27: 106.9465
-Rataan Sampel 28: 115.3164
-Rataan Sampel 29: 101.7743
-Rataan Sampel 30: 102.2478
-Rataan Sampel 31: 92.9882
-Rataan Sampel 32: 100.9615
-Rataan Sampel 33: 106.6025
-Rataan Sampel 34: 100.4357
-Rataan Sampel 35: 99.814
-Rataan Sampel 36: 98.4559
-Rataan Sampel 37: 107.4128
-Rataan Sampel 38: 101.5875
-Rataan Sampel 39: 105.07
-Rataan Sampel 40: 99.6938
-Rataan Sampel 41: 100.8158
-Rataan Sampel 42: 100.7441
-Rataan Sampel 43: 100.0447
-Rataan Sampel 44: 107.2246
-Rataan Sampel 45: 98.6635
-Rataan Sampel 46: 99.1467
-Rataan Sampel 47: 93.4464
-Rataan Sampel 48: 97.2021
-Rataan Sampel 49: 90.7644
-Rataan Sampel 50: 99.6659</t>
+          <t>Rataan Sampel 1: 105.0891
+Rataan Sampel 2: 101.289
+Rataan Sampel 3: 95.7039
+Rataan Sampel 4: 100.0251
+Rataan Sampel 5: 106.6248
+Rataan Sampel 6: 99.8932
+Rataan Sampel 7: 98.1047
+Rataan Sampel 8: 93.9198
+Rataan Sampel 9: 98.0418
+Rataan Sampel 10: 105.1755
+Rataan Sampel 11: 94.5032
+Rataan Sampel 12: 106.4646
+Rataan Sampel 13: 96.6871
+Rataan Sampel 14: 108.1285
+Rataan Sampel 15: 103.3153
+Rataan Sampel 16: 109.7368
+Rataan Sampel 17: 108.9319
+Rataan Sampel 18: 100.8898
+Rataan Sampel 19: 95.3174
+Rataan Sampel 20: 103.8435
+Rataan Sampel 21: 103.8259
+Rataan Sampel 22: 97.4476
+Rataan Sampel 23: 98.8027
+Rataan Sampel 24: 98.5448
+Rataan Sampel 25: 99.2095
+Rataan Sampel 26: 111.3148
+Rataan Sampel 27: 102.6501
+Rataan Sampel 28: 103.9487
+Rataan Sampel 29: 103.749
+Rataan Sampel 30: 97.6025
+Rataan Sampel 31: 97.9355
+Rataan Sampel 32: 101.885
+Rataan Sampel 33: 96.725
+Rataan Sampel 34: 95.5003
+Rataan Sampel 35: 102.1095
+Rataan Sampel 36: 110.0668
+Rataan Sampel 37: 108.8433
+Rataan Sampel 38: 108.8706
+Rataan Sampel 39: 96.7349
+Rataan Sampel 40: 103.0965</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>101.9232</v>
+        <v>101.7637</v>
       </c>
       <c r="E13" t="n">
         <v>101.4167</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5065</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Data3</t>
+          <t>Data2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 28.4625</t>
+          <t>Rataan Sampel 1: 95.0521
+Rataan Sampel 2: 98.1444
+Rataan Sampel 3: 97.4688
+Rataan Sampel 4: 101.0343
+Rataan Sampel 5: 99.9121
+Rataan Sampel 6: 103.225
+Rataan Sampel 7: 101.4043
+Rataan Sampel 8: 104.5503
+Rataan Sampel 9: 101.8875
+Rataan Sampel 10: 104.912
+Rataan Sampel 11: 105.9925
+Rataan Sampel 12: 99.4412
+Rataan Sampel 13: 93.7895
+Rataan Sampel 14: 109.6544
+Rataan Sampel 15: 105.0199
+Rataan Sampel 16: 103.4299
+Rataan Sampel 17: 92.7224
+Rataan Sampel 18: 107.1429
+Rataan Sampel 19: 105.4346
+Rataan Sampel 20: 101.4144
+Rataan Sampel 21: 107.6231
+Rataan Sampel 22: 113.8755
+Rataan Sampel 23: 95.3609
+Rataan Sampel 24: 101.6482
+Rataan Sampel 25: 105.5778
+Rataan Sampel 26: 93.6178
+Rataan Sampel 27: 95.327
+Rataan Sampel 28: 98.4187
+Rataan Sampel 29: 96.3452
+Rataan Sampel 30: 100.6611
+Rataan Sampel 31: 101.2627
+Rataan Sampel 32: 101.4515
+Rataan Sampel 33: 99.1511
+Rataan Sampel 34: 105.8815
+Rataan Sampel 35: 101.1958
+Rataan Sampel 36: 99.6696
+Rataan Sampel 37: 96.826
+Rataan Sampel 38: 106.036
+Rataan Sampel 39: 104.5838
+Rataan Sampel 40: 99.9938
+Rataan Sampel 41: 100.1168
+Rataan Sampel 42: 107.1615
+Rataan Sampel 43: 97.6512
+Rataan Sampel 44: 107.6737
+Rataan Sampel 45: 94.9507
+Rataan Sampel 46: 100.3548
+Rataan Sampel 47: 106.1928
+Rataan Sampel 48: 96.6361
+Rataan Sampel 49: 103.3883
+Rataan Sampel 50: 99.229</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28.4625</v>
+        <v>101.3899</v>
       </c>
       <c r="E14" t="n">
-        <v>29.6333</v>
+        <v>101.4167</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1708</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Data3</t>
+          <t>Data2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 32.3666
-Rataan Sampel 2: 36.8493
-Rataan Sampel 3: 36.1347
-Rataan Sampel 4: 17.655
-Rataan Sampel 5: 22.7392</t>
+          <t>Rataan Sampel 1: 101.9523
+Rataan Sampel 2: 101.3379
+Rataan Sampel 3: 109.2094
+Rataan Sampel 4: 101.7775
+Rataan Sampel 5: 92.5575
+Rataan Sampel 6: 105.4056
+Rataan Sampel 7: 108.4095
+Rataan Sampel 8: 108.3626
+Rataan Sampel 9: 105.8131
+Rataan Sampel 10: 98.3942
+Rataan Sampel 11: 110.5474
+Rataan Sampel 12: 104.3743
+Rataan Sampel 13: 98.941
+Rataan Sampel 14: 92.6826
+Rataan Sampel 15: 95.5657
+Rataan Sampel 16: 98.6121
+Rataan Sampel 17: 108.472
+Rataan Sampel 18: 99.6809
+Rataan Sampel 19: 98.8823
+Rataan Sampel 20: 98.6031
+Rataan Sampel 21: 102.3179
+Rataan Sampel 22: 96.1928
+Rataan Sampel 23: 106.0487
+Rataan Sampel 24: 98.4821
+Rataan Sampel 25: 90.4046
+Rataan Sampel 26: 100.8847
+Rataan Sampel 27: 98.6848
+Rataan Sampel 28: 97.165
+Rataan Sampel 29: 94.2123
+Rataan Sampel 30: 100.9598
+Rataan Sampel 31: 102.0561
+Rataan Sampel 32: 101.2514
+Rataan Sampel 33: 106.2979
+Rataan Sampel 34: 98.2528
+Rataan Sampel 35: 104.0227
+Rataan Sampel 36: 102.4317
+Rataan Sampel 37: 99.6261
+Rataan Sampel 38: 97.9006
+Rataan Sampel 39: 102.1967
+Rataan Sampel 40: 104.4906
+Rataan Sampel 41: 100.2226
+Rataan Sampel 42: 103.6807
+Rataan Sampel 43: 100.6401
+Rataan Sampel 44: 95.9231
+Rataan Sampel 45: 106.9941
+Rataan Sampel 46: 108.4049
+Rataan Sampel 47: 100.2231
+Rataan Sampel 48: 100.772
+Rataan Sampel 49: 99.8995
+Rataan Sampel 50: 99.5321
+Rataan Sampel 51: 102.492
+Rataan Sampel 52: 94.8439
+Rataan Sampel 53: 98.1952
+Rataan Sampel 54: 97.2276
+Rataan Sampel 55: 96.2258
+Rataan Sampel 56: 100.1232
+Rataan Sampel 57: 104.3887
+Rataan Sampel 58: 95.0267
+Rataan Sampel 59: 104.2437
+Rataan Sampel 60: 100.0629
+Rataan Sampel 61: 99.7899
+Rataan Sampel 62: 99.2269
+Rataan Sampel 63: 106.514
+Rataan Sampel 64: 105.601
+Rataan Sampel 65: 103.5293
+Rataan Sampel 66: 108.2385
+Rataan Sampel 67: 96.3735
+Rataan Sampel 68: 97.763
+Rataan Sampel 69: 109.1953
+Rataan Sampel 70: 96.6447
+Rataan Sampel 71: 102.9734
+Rataan Sampel 72: 99.8091
+Rataan Sampel 73: 101.9615
+Rataan Sampel 74: 108.6363
+Rataan Sampel 75: 96.912
+Rataan Sampel 76: 97.9156
+Rataan Sampel 77: 100.7048
+Rataan Sampel 78: 107.4158
+Rataan Sampel 79: 97.9948
+Rataan Sampel 80: 97.7212
+Rataan Sampel 81: 101.7064
+Rataan Sampel 82: 98.4391
+Rataan Sampel 83: 106.4583
+Rataan Sampel 84: 101.6427
+Rataan Sampel 85: 97.7728
+Rataan Sampel 86: 98.6343
+Rataan Sampel 87: 99.171
+Rataan Sampel 88: 102.697
+Rataan Sampel 89: 103.6266
+Rataan Sampel 90: 98.7823
+Rataan Sampel 91: 102.6249
+Rataan Sampel 92: 102.6377
+Rataan Sampel 93: 97.6293
+Rataan Sampel 94: 98.275
+Rataan Sampel 95: 104.0833
+Rataan Sampel 96: 93.5529
+Rataan Sampel 97: 97.0493
+Rataan Sampel 98: 97.3597
+Rataan Sampel 99: 99.2196
+Rataan Sampel 100: 101.4095</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29.1489</v>
+        <v>100.9027</v>
       </c>
       <c r="E15" t="n">
-        <v>29.6333</v>
+        <v>101.4167</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4844</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="16">
@@ -1052,30 +1246,21 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 37.7266
-Rataan Sampel 2: 27.8511
-Rataan Sampel 3: 30.8625
-Rataan Sampel 4: 39.2346
-Rataan Sampel 5: 24.6592
-Rataan Sampel 6: 26.5806
-Rataan Sampel 7: 35.4084
-Rataan Sampel 8: 29.1478
-Rataan Sampel 9: 31.3914
-Rataan Sampel 10: 31.9805</t>
+          <t>Rataan Sampel 1: 29.2792</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31.4843</v>
+        <v>29.2792</v>
       </c>
       <c r="E16" t="n">
         <v>29.6333</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8509</v>
+        <v>0.3542</v>
       </c>
     </row>
     <row r="17">
@@ -1085,40 +1270,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 28.5908
-Rataan Sampel 2: 29.9341
-Rataan Sampel 3: 27.2821
-Rataan Sampel 4: 30.8679
-Rataan Sampel 5: 28.7162
-Rataan Sampel 6: 30.3289
-Rataan Sampel 7: 31.7906
-Rataan Sampel 8: 36.7232
-Rataan Sampel 9: 27.9053
-Rataan Sampel 10: 35.6276
-Rataan Sampel 11: 28.5205
-Rataan Sampel 12: 38.2895
-Rataan Sampel 13: 37.8302
-Rataan Sampel 14: 34.5823
-Rataan Sampel 15: 33.6503
-Rataan Sampel 16: 28.031
-Rataan Sampel 17: 34.5901
-Rataan Sampel 18: 43.6043
-Rataan Sampel 19: 28.1011
-Rataan Sampel 20: 30.9068</t>
+          <t>Rataan Sampel 1: 23.5914
+Rataan Sampel 2: 13.9725
+Rataan Sampel 3: 21.1153
+Rataan Sampel 4: 29.257
+Rataan Sampel 5: 30.0937</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32.2936</v>
+        <v>23.606</v>
       </c>
       <c r="E17" t="n">
         <v>29.6333</v>
       </c>
       <c r="F17" t="n">
-        <v>2.6603</v>
+        <v>6.0274</v>
       </c>
     </row>
     <row r="18">
@@ -1128,60 +1298,30 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 20.7891
-Rataan Sampel 2: 29.5906
-Rataan Sampel 3: 31.2229
-Rataan Sampel 4: 32.9134
-Rataan Sampel 5: 38.7958
-Rataan Sampel 6: 24.1573
-Rataan Sampel 7: 17.6996
-Rataan Sampel 8: 31.1195
-Rataan Sampel 9: 30.8555
-Rataan Sampel 10: 26.1501
-Rataan Sampel 11: 37.1152
-Rataan Sampel 12: 52.7341
-Rataan Sampel 13: 27.0815
-Rataan Sampel 14: 27.3555
-Rataan Sampel 15: 30.2783
-Rataan Sampel 16: 23.1263
-Rataan Sampel 17: 30.9822
-Rataan Sampel 18: 26.1492
-Rataan Sampel 19: 27.0509
-Rataan Sampel 20: 24.6696
-Rataan Sampel 21: 17.8533
-Rataan Sampel 22: 27.8332
-Rataan Sampel 23: 30.7623
-Rataan Sampel 24: 49.2498
-Rataan Sampel 25: 29.9059
-Rataan Sampel 26: 27.5844
-Rataan Sampel 27: 28.0481
-Rataan Sampel 28: 26.8174
-Rataan Sampel 29: 37.6448
-Rataan Sampel 30: 37.97
-Rataan Sampel 31: 36.624
-Rataan Sampel 32: 26.7617
-Rataan Sampel 33: 25.0895
-Rataan Sampel 34: 29.6426
-Rataan Sampel 35: 21.1201
-Rataan Sampel 36: 27.852
-Rataan Sampel 37: 25.6523
-Rataan Sampel 38: 19.6002
-Rataan Sampel 39: 35.4402
-Rataan Sampel 40: 34.7486</t>
+          <t>Rataan Sampel 1: 24.3958
+Rataan Sampel 2: 31.5309
+Rataan Sampel 3: 31.3974
+Rataan Sampel 4: 29.2293
+Rataan Sampel 5: 39.077
+Rataan Sampel 6: 26.0655
+Rataan Sampel 7: 25.2087
+Rataan Sampel 8: 29.286
+Rataan Sampel 9: 43.0931
+Rataan Sampel 10: 18.4307</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29.6509</v>
+        <v>29.7714</v>
       </c>
       <c r="E18" t="n">
         <v>29.6333</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0176</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="19">
@@ -1191,155 +1331,299 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 39.5426
-Rataan Sampel 2: 38.7092
-Rataan Sampel 3: 27.63
-Rataan Sampel 4: 21.6895
-Rataan Sampel 5: 21.7324
-Rataan Sampel 6: 19.9521
-Rataan Sampel 7: 27.7999
-Rataan Sampel 8: 28.2369
-Rataan Sampel 9: 37.9884
-Rataan Sampel 10: 26.6355
-Rataan Sampel 11: 32.2302
-Rataan Sampel 12: 27.6158
-Rataan Sampel 13: 44.4362
-Rataan Sampel 14: 21.8776
-Rataan Sampel 15: 29.2988
-Rataan Sampel 16: 26.975
-Rataan Sampel 17: 29.7649
-Rataan Sampel 18: 31.1188
-Rataan Sampel 19: 28.8397
-Rataan Sampel 20: 35.4382
-Rataan Sampel 21: 22.4933
-Rataan Sampel 22: 28.8251
-Rataan Sampel 23: 43.4864
-Rataan Sampel 24: 31.2006
-Rataan Sampel 25: 30.0488
-Rataan Sampel 26: 33.4399
-Rataan Sampel 27: 30.6986
-Rataan Sampel 28: 23.303
-Rataan Sampel 29: 27.9831
-Rataan Sampel 30: 33.0342
-Rataan Sampel 31: 25.4816
-Rataan Sampel 32: 25.6728
-Rataan Sampel 33: 20.3935
-Rataan Sampel 34: 31.2443
-Rataan Sampel 35: 27.7727
-Rataan Sampel 36: 30.2265
-Rataan Sampel 37: 30.8542
-Rataan Sampel 38: 38.5481
-Rataan Sampel 39: 27.2616
-Rataan Sampel 40: 50.1038
-Rataan Sampel 41: 40.1908
-Rataan Sampel 42: 39.4396
-Rataan Sampel 43: 32.9417
-Rataan Sampel 44: 21.0474
-Rataan Sampel 45: 31.2677
-Rataan Sampel 46: 32.1075
-Rataan Sampel 47: 24.6805
-Rataan Sampel 48: 25.4493
-Rataan Sampel 49: 25.6617
-Rataan Sampel 50: 23.2791</t>
+          <t>Rataan Sampel 1: 26.6983
+Rataan Sampel 2: 27.1915
+Rataan Sampel 3: 31.586
+Rataan Sampel 4: 31.6454
+Rataan Sampel 5: 27.7192
+Rataan Sampel 6: 39.5242
+Rataan Sampel 7: 29.833
+Rataan Sampel 8: 32.6666
+Rataan Sampel 9: 40.6051
+Rataan Sampel 10: 31.8638
+Rataan Sampel 11: 17.1506
+Rataan Sampel 12: 32.3956
+Rataan Sampel 13: 25.1401
+Rataan Sampel 14: 33.6726
+Rataan Sampel 15: 24.4245
+Rataan Sampel 16: 17.4038
+Rataan Sampel 17: 19.3206
+Rataan Sampel 18: 17.3937
+Rataan Sampel 19: 33.3375
+Rataan Sampel 20: 26.7775</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30.113</v>
+        <v>28.3175</v>
       </c>
       <c r="E19" t="n">
         <v>29.6333</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4796</v>
+        <v>1.3159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Data4</t>
+          <t>Data3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 51.6246</t>
+          <t>Rataan Sampel 1: 33.3801
+Rataan Sampel 2: 37.424
+Rataan Sampel 3: 36.7445
+Rataan Sampel 4: 36.4713
+Rataan Sampel 5: 31.4234
+Rataan Sampel 6: 34.7248
+Rataan Sampel 7: 31.616
+Rataan Sampel 8: 39.1078
+Rataan Sampel 9: 38.1675
+Rataan Sampel 10: 26.2905
+Rataan Sampel 11: 25.8509
+Rataan Sampel 12: 23.3843
+Rataan Sampel 13: 21.0658
+Rataan Sampel 14: 37.1891
+Rataan Sampel 15: 23.2669
+Rataan Sampel 16: 38.4519
+Rataan Sampel 17: 24.9902
+Rataan Sampel 18: 32.8497
+Rataan Sampel 19: 21.2123
+Rataan Sampel 20: 33.4159
+Rataan Sampel 21: 34.6727
+Rataan Sampel 22: 33.3679
+Rataan Sampel 23: 36.0964
+Rataan Sampel 24: 33.1302
+Rataan Sampel 25: 27.1287
+Rataan Sampel 26: 37.551
+Rataan Sampel 27: 38.1511
+Rataan Sampel 28: 37.0652
+Rataan Sampel 29: 27.3704
+Rataan Sampel 30: 35.6496
+Rataan Sampel 31: 23.8834
+Rataan Sampel 32: 16.6286
+Rataan Sampel 33: 33.5196
+Rataan Sampel 34: 21.2043
+Rataan Sampel 35: 27.1806
+Rataan Sampel 36: 38.0457
+Rataan Sampel 37: 21.9388
+Rataan Sampel 38: 34.0775
+Rataan Sampel 39: 30.4231
+Rataan Sampel 40: 31.8271</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51.6246</v>
+        <v>31.1485</v>
       </c>
       <c r="E20" t="n">
-        <v>49.0897</v>
+        <v>29.6333</v>
       </c>
       <c r="F20" t="n">
-        <v>2.5349</v>
+        <v>1.5151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Data4</t>
+          <t>Data3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 49.518
-Rataan Sampel 2: 48.1703
-Rataan Sampel 3: 50.6862
-Rataan Sampel 4: 48.1449
-Rataan Sampel 5: 49.9633</t>
+          <t>Rataan Sampel 1: 36.9275
+Rataan Sampel 2: 26.6263
+Rataan Sampel 3: 28.0991
+Rataan Sampel 4: 35.8082
+Rataan Sampel 5: 19.4899
+Rataan Sampel 6: 29.6208
+Rataan Sampel 7: 43.3767
+Rataan Sampel 8: 34.002
+Rataan Sampel 9: 22.2522
+Rataan Sampel 10: 30.1998
+Rataan Sampel 11: 48.934
+Rataan Sampel 12: 28.261
+Rataan Sampel 13: 27.6439
+Rataan Sampel 14: 34.0785
+Rataan Sampel 15: 31.2768
+Rataan Sampel 16: 30.8005
+Rataan Sampel 17: 26.7477
+Rataan Sampel 18: 22.9347
+Rataan Sampel 19: 27.2888
+Rataan Sampel 20: 37.2552
+Rataan Sampel 21: 37.4763
+Rataan Sampel 22: 33.4743
+Rataan Sampel 23: 24.5471
+Rataan Sampel 24: 31.3674
+Rataan Sampel 25: 37.5547
+Rataan Sampel 26: 33.7111
+Rataan Sampel 27: 30.5274
+Rataan Sampel 28: 34.4996
+Rataan Sampel 29: 38.9149
+Rataan Sampel 30: 34.9591
+Rataan Sampel 31: 30.3534
+Rataan Sampel 32: 19.6935
+Rataan Sampel 33: 22.7162
+Rataan Sampel 34: 34.95
+Rataan Sampel 35: 29.7688
+Rataan Sampel 36: 40.3609
+Rataan Sampel 37: 45.4685
+Rataan Sampel 38: 32.9976
+Rataan Sampel 39: 25.8585
+Rataan Sampel 40: 30.6965
+Rataan Sampel 41: 33.5687
+Rataan Sampel 42: 22.8441
+Rataan Sampel 43: 38.8408
+Rataan Sampel 44: 26.812
+Rataan Sampel 45: 24.1873
+Rataan Sampel 46: 17.212
+Rataan Sampel 47: 37.2012
+Rataan Sampel 48: 26.061
+Rataan Sampel 49: 21.1433
+Rataan Sampel 50: 34.0791</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49.2965</v>
+        <v>31.0694</v>
       </c>
       <c r="E21" t="n">
-        <v>49.0897</v>
+        <v>29.6333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2069</v>
+        <v>1.436</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Data4</t>
+          <t>Data3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 49.8923
-Rataan Sampel 2: 50.1219
-Rataan Sampel 3: 51.832
-Rataan Sampel 4: 52.4644
-Rataan Sampel 5: 51.555
-Rataan Sampel 6: 48.9324
-Rataan Sampel 7: 48.1463
-Rataan Sampel 8: 52.2436
-Rataan Sampel 9: 50.4177
-Rataan Sampel 10: 45.3108</t>
+          <t>Rataan Sampel 1: 21.8269
+Rataan Sampel 2: 31.8254
+Rataan Sampel 3: 23.584
+Rataan Sampel 4: 27.1685
+Rataan Sampel 5: 28.3217
+Rataan Sampel 6: 31.4329
+Rataan Sampel 7: 39.2916
+Rataan Sampel 8: 20.5308
+Rataan Sampel 9: 29.7904
+Rataan Sampel 10: 24.0055
+Rataan Sampel 11: 28.1884
+Rataan Sampel 12: 28.4542
+Rataan Sampel 13: 34.1759
+Rataan Sampel 14: 29.5673
+Rataan Sampel 15: 22.969
+Rataan Sampel 16: 29.1725
+Rataan Sampel 17: 28.9854
+Rataan Sampel 18: 25.6551
+Rataan Sampel 19: 20.5552
+Rataan Sampel 20: 30.5301
+Rataan Sampel 21: 28.0641
+Rataan Sampel 22: 27.8086
+Rataan Sampel 23: 16.8181
+Rataan Sampel 24: 35.7312
+Rataan Sampel 25: 29.9776
+Rataan Sampel 26: 40.0497
+Rataan Sampel 27: 41.2545
+Rataan Sampel 28: 32.7262
+Rataan Sampel 29: 28.547
+Rataan Sampel 30: 24.2337
+Rataan Sampel 31: 22.5048
+Rataan Sampel 32: 36.9532
+Rataan Sampel 33: 27.7464
+Rataan Sampel 34: 29.7405
+Rataan Sampel 35: 23.2545
+Rataan Sampel 36: 23.8601
+Rataan Sampel 37: 18.4899
+Rataan Sampel 38: 30.9949
+Rataan Sampel 39: 36.3173
+Rataan Sampel 40: 24.8295
+Rataan Sampel 41: 35.5278
+Rataan Sampel 42: 25.5203
+Rataan Sampel 43: 31.5706
+Rataan Sampel 44: 31.4271
+Rataan Sampel 45: 29.5788
+Rataan Sampel 46: 25.2945
+Rataan Sampel 47: 29.6189
+Rataan Sampel 48: 33.4586
+Rataan Sampel 49: 27.6802
+Rataan Sampel 50: 45.1001
+Rataan Sampel 51: 32.9807
+Rataan Sampel 52: 25.5506
+Rataan Sampel 53: 23.5158
+Rataan Sampel 54: 31.9583
+Rataan Sampel 55: 32.1531
+Rataan Sampel 56: 31.8182
+Rataan Sampel 57: 23.5695
+Rataan Sampel 58: 51.2762
+Rataan Sampel 59: 26.4904
+Rataan Sampel 60: 32.3487
+Rataan Sampel 61: 32.0614
+Rataan Sampel 62: 24.3063
+Rataan Sampel 63: 23.2361
+Rataan Sampel 64: 28.0969
+Rataan Sampel 65: 24.3769
+Rataan Sampel 66: 24.5694
+Rataan Sampel 67: 38.9273
+Rataan Sampel 68: 24.5397
+Rataan Sampel 69: 19.1159
+Rataan Sampel 70: 32.3061
+Rataan Sampel 71: 20.2339
+Rataan Sampel 72: 40.8245
+Rataan Sampel 73: 41.1424
+Rataan Sampel 74: 30.6522
+Rataan Sampel 75: 24.4965
+Rataan Sampel 76: 21.8209
+Rataan Sampel 77: 37.269
+Rataan Sampel 78: 23.51
+Rataan Sampel 79: 28.2119
+Rataan Sampel 80: 26.1089
+Rataan Sampel 81: 19.2166
+Rataan Sampel 82: 23.9803
+Rataan Sampel 83: 29.1472
+Rataan Sampel 84: 21.6446
+Rataan Sampel 85: 43.6133
+Rataan Sampel 86: 35.5634
+Rataan Sampel 87: 24.8027
+Rataan Sampel 88: 22.7089
+Rataan Sampel 89: 26.9891
+Rataan Sampel 90: 36.7664
+Rataan Sampel 91: 35.6586
+Rataan Sampel 92: 24.2653
+Rataan Sampel 93: 29.5346
+Rataan Sampel 94: 24.5229
+Rataan Sampel 95: 26.7657
+Rataan Sampel 96: 38.0586
+Rataan Sampel 97: 36.959
+Rataan Sampel 98: 33.0611
+Rataan Sampel 99: 33.7341
+Rataan Sampel 100: 43.1421</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50.0916</v>
+        <v>29.3831</v>
       </c>
       <c r="E22" t="n">
-        <v>49.0897</v>
+        <v>29.6333</v>
       </c>
       <c r="F22" t="n">
-        <v>1.002</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="23">
@@ -1349,40 +1633,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 45.6211
-Rataan Sampel 2: 51.9712
-Rataan Sampel 3: 49.7861
-Rataan Sampel 4: 48.3642
-Rataan Sampel 5: 50.4997
-Rataan Sampel 6: 46.1773
-Rataan Sampel 7: 45.5961
-Rataan Sampel 8: 42.7117
-Rataan Sampel 9: 52.387
-Rataan Sampel 10: 50.4136
-Rataan Sampel 11: 51.4271
-Rataan Sampel 12: 50.2322
-Rataan Sampel 13: 48.6038
-Rataan Sampel 14: 43.0076
-Rataan Sampel 15: 47.4546
-Rataan Sampel 16: 51.9185
-Rataan Sampel 17: 51.5475
-Rataan Sampel 18: 43.6943
-Rataan Sampel 19: 46.1145
-Rataan Sampel 20: 46.8968</t>
+          <t>Rataan Sampel 1: 47.8292</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48.2212</v>
+        <v>47.8292</v>
       </c>
       <c r="E23" t="n">
         <v>49.0897</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8683999999999999</v>
+        <v>1.2605</v>
       </c>
     </row>
     <row r="24">
@@ -1392,60 +1657,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 44.4209
-Rataan Sampel 2: 50.2703
-Rataan Sampel 3: 48.2802
-Rataan Sampel 4: 47.0163
-Rataan Sampel 5: 45.3981
-Rataan Sampel 6: 57.2455
-Rataan Sampel 7: 49.053
-Rataan Sampel 8: 50.9812
-Rataan Sampel 9: 46.7679
-Rataan Sampel 10: 56.4813
-Rataan Sampel 11: 49.1861
-Rataan Sampel 12: 61.116
-Rataan Sampel 13: 46.663
-Rataan Sampel 14: 42.8544
-Rataan Sampel 15: 42.9592
-Rataan Sampel 16: 56.066
-Rataan Sampel 17: 46.7808
-Rataan Sampel 18: 51.0618
-Rataan Sampel 19: 51.9579
-Rataan Sampel 20: 56.3388
-Rataan Sampel 21: 52.848
-Rataan Sampel 22: 48.5466
-Rataan Sampel 23: 46.2295
-Rataan Sampel 24: 41.3252
-Rataan Sampel 25: 54.819
-Rataan Sampel 26: 48.512
-Rataan Sampel 27: 49.672
-Rataan Sampel 28: 51.5075
-Rataan Sampel 29: 44.1684
-Rataan Sampel 30: 54.3305
-Rataan Sampel 31: 53.1153
-Rataan Sampel 32: 43.3192
-Rataan Sampel 33: 47.6907
-Rataan Sampel 34: 46.8853
-Rataan Sampel 35: 48.1254
-Rataan Sampel 36: 47.5794
-Rataan Sampel 37: 51.1368
-Rataan Sampel 38: 46.311
-Rataan Sampel 39: 55.1898
-Rataan Sampel 40: 52.2088</t>
+          <t>Rataan Sampel 1: 42.2365
+Rataan Sampel 2: 52.5306
+Rataan Sampel 3: 50.8805
+Rataan Sampel 4: 53.8164
+Rataan Sampel 5: 49.3995</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49.6105</v>
+        <v>49.7727</v>
       </c>
       <c r="E24" t="n">
         <v>49.0897</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5208</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1455,70 +1685,332 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rataan Sampel 1: 53.3969
-Rataan Sampel 2: 48.9923
-Rataan Sampel 3: 50.9455
-Rataan Sampel 4: 50.4843
-Rataan Sampel 5: 43.0902
-Rataan Sampel 6: 52.7603
-Rataan Sampel 7: 52.495
-Rataan Sampel 8: 45.4017
-Rataan Sampel 9: 46.5984
-Rataan Sampel 10: 50.0763
-Rataan Sampel 11: 54.514
-Rataan Sampel 12: 50.0638
-Rataan Sampel 13: 48.9096
-Rataan Sampel 14: 48.1028
-Rataan Sampel 15: 49.3433
-Rataan Sampel 16: 52.1291
-Rataan Sampel 17: 49.55
-Rataan Sampel 18: 49.073
-Rataan Sampel 19: 44.1218
-Rataan Sampel 20: 41.7303
-Rataan Sampel 21: 56.0477
-Rataan Sampel 22: 42.2437
-Rataan Sampel 23: 47.3534
-Rataan Sampel 24: 43.8694
-Rataan Sampel 25: 46.2811
-Rataan Sampel 26: 52.5585
-Rataan Sampel 27: 41.5289
-Rataan Sampel 28: 52.5003
-Rataan Sampel 29: 49.328
-Rataan Sampel 30: 53.1995
-Rataan Sampel 31: 48.015
-Rataan Sampel 32: 48.5672
-Rataan Sampel 33: 53.1027
-Rataan Sampel 34: 45.1355
-Rataan Sampel 35: 50.5802
-Rataan Sampel 36: 40.4838
-Rataan Sampel 37: 45.8394
-Rataan Sampel 38: 49.8058
-Rataan Sampel 39: 46.2684
-Rataan Sampel 40: 56.5694
-Rataan Sampel 41: 47.6647
-Rataan Sampel 42: 49.7208
-Rataan Sampel 43: 45.6217
-Rataan Sampel 44: 45.9999
-Rataan Sampel 45: 52.4162
-Rataan Sampel 46: 52.5992
-Rataan Sampel 47: 51.4276
-Rataan Sampel 48: 45.9124
-Rataan Sampel 49: 47.6365
-Rataan Sampel 50: 40.8555</t>
+          <t>Rataan Sampel 1: 46.6837
+Rataan Sampel 2: 49.5466
+Rataan Sampel 3: 47.5838
+Rataan Sampel 4: 48.8131
+Rataan Sampel 5: 54.1818
+Rataan Sampel 6: 46.7382
+Rataan Sampel 7: 50.5199
+Rataan Sampel 8: 51.826
+Rataan Sampel 9: 51.167
+Rataan Sampel 10: 52.1101</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48.6182</v>
+        <v>49.917</v>
       </c>
       <c r="E25" t="n">
         <v>49.0897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4714</v>
+        <v>0.8274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Data4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rataan Sampel 1: 47.1786
+Rataan Sampel 2: 54.1092
+Rataan Sampel 3: 50.7231
+Rataan Sampel 4: 49.1282
+Rataan Sampel 5: 45.58
+Rataan Sampel 6: 45.6914
+Rataan Sampel 7: 48.9902
+Rataan Sampel 8: 45.5926
+Rataan Sampel 9: 46.0004
+Rataan Sampel 10: 56.066
+Rataan Sampel 11: 59.3303
+Rataan Sampel 12: 48.2779
+Rataan Sampel 13: 52.3655
+Rataan Sampel 14: 44.3066
+Rataan Sampel 15: 47.2367
+Rataan Sampel 16: 46.2117
+Rataan Sampel 17: 53.1115
+Rataan Sampel 18: 50.388
+Rataan Sampel 19: 50.6161
+Rataan Sampel 20: 49.279</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>49.5092</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49.0897</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Data4</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>40</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rataan Sampel 1: 46.5341
+Rataan Sampel 2: 51.5147
+Rataan Sampel 3: 53.7238
+Rataan Sampel 4: 43.7354
+Rataan Sampel 5: 49.4685
+Rataan Sampel 6: 53.5011
+Rataan Sampel 7: 59.1557
+Rataan Sampel 8: 47.7464
+Rataan Sampel 9: 42.0797
+Rataan Sampel 10: 44.1414
+Rataan Sampel 11: 43.8811
+Rataan Sampel 12: 47.13
+Rataan Sampel 13: 46.4235
+Rataan Sampel 14: 50.2915
+Rataan Sampel 15: 45.737
+Rataan Sampel 16: 43.511
+Rataan Sampel 17: 54.0683
+Rataan Sampel 18: 42.5927
+Rataan Sampel 19: 52.591
+Rataan Sampel 20: 49.4375
+Rataan Sampel 21: 52.6249
+Rataan Sampel 22: 45.2926
+Rataan Sampel 23: 42.4092
+Rataan Sampel 24: 51.8111
+Rataan Sampel 25: 52.1272
+Rataan Sampel 26: 54.9813
+Rataan Sampel 27: 45.6474
+Rataan Sampel 28: 50.9104
+Rataan Sampel 29: 48.3337
+Rataan Sampel 30: 49.0483
+Rataan Sampel 31: 51.126
+Rataan Sampel 32: 49.6076
+Rataan Sampel 33: 45.361
+Rataan Sampel 34: 42.1122
+Rataan Sampel 35: 49.5523
+Rataan Sampel 36: 48.8203
+Rataan Sampel 37: 47.6896
+Rataan Sampel 38: 42.9301
+Rataan Sampel 39: 40.0044
+Rataan Sampel 40: 52.9019</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>48.2639</v>
+      </c>
+      <c r="E27" t="n">
+        <v>49.0897</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Data4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rataan Sampel 1: 48.4277
+Rataan Sampel 2: 46.3003
+Rataan Sampel 3: 48.4026
+Rataan Sampel 4: 52.935
+Rataan Sampel 5: 49.8053
+Rataan Sampel 6: 51.3411
+Rataan Sampel 7: 52.256
+Rataan Sampel 8: 50.6022
+Rataan Sampel 9: 51.018
+Rataan Sampel 10: 48.2609
+Rataan Sampel 11: 48.0247
+Rataan Sampel 12: 46.5547
+Rataan Sampel 13: 42.7659
+Rataan Sampel 14: 42.1627
+Rataan Sampel 15: 56.16
+Rataan Sampel 16: 42.2696
+Rataan Sampel 17: 50.5137
+Rataan Sampel 18: 51.7571
+Rataan Sampel 19: 51.9065
+Rataan Sampel 20: 49.9487
+Rataan Sampel 21: 51.907
+Rataan Sampel 22: 44.4708
+Rataan Sampel 23: 45.7405
+Rataan Sampel 24: 48.926
+Rataan Sampel 25: 44.8329
+Rataan Sampel 26: 51.454
+Rataan Sampel 27: 43.2801
+Rataan Sampel 28: 46.7592
+Rataan Sampel 29: 46.7199
+Rataan Sampel 30: 50.4891
+Rataan Sampel 31: 46.3654
+Rataan Sampel 32: 54.8647
+Rataan Sampel 33: 52.5024
+Rataan Sampel 34: 50.6229
+Rataan Sampel 35: 49.0555
+Rataan Sampel 36: 57.7984
+Rataan Sampel 37: 46.2155
+Rataan Sampel 38: 41.6642
+Rataan Sampel 39: 46.7637
+Rataan Sampel 40: 47.6595
+Rataan Sampel 41: 48.2969
+Rataan Sampel 42: 44.7378
+Rataan Sampel 43: 46.6941
+Rataan Sampel 44: 45.9665
+Rataan Sampel 45: 44.9247
+Rataan Sampel 46: 57.0815
+Rataan Sampel 47: 49.7893
+Rataan Sampel 48: 48.5721
+Rataan Sampel 49: 55.9549
+Rataan Sampel 50: 49.8331</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>48.8271</v>
+      </c>
+      <c r="E28" t="n">
+        <v>49.0897</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2626</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Data4</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rataan Sampel 1: 46.4698
+Rataan Sampel 2: 49.6962
+Rataan Sampel 3: 49.5878
+Rataan Sampel 4: 47.2534
+Rataan Sampel 5: 49.6062
+Rataan Sampel 6: 43.4786
+Rataan Sampel 7: 49.6227
+Rataan Sampel 8: 56.0976
+Rataan Sampel 9: 48.4141
+Rataan Sampel 10: 51.7804
+Rataan Sampel 11: 45.6267
+Rataan Sampel 12: 56.9062
+Rataan Sampel 13: 50.969
+Rataan Sampel 14: 45.6384
+Rataan Sampel 15: 48.9836
+Rataan Sampel 16: 49.9823
+Rataan Sampel 17: 53.2917
+Rataan Sampel 18: 43.2934
+Rataan Sampel 19: 52.4216
+Rataan Sampel 20: 51.8751
+Rataan Sampel 21: 43.1042
+Rataan Sampel 22: 47.2368
+Rataan Sampel 23: 46.0214
+Rataan Sampel 24: 46.3535
+Rataan Sampel 25: 50.4651
+Rataan Sampel 26: 51.0115
+Rataan Sampel 27: 45.4357
+Rataan Sampel 28: 54.0517
+Rataan Sampel 29: 47.596
+Rataan Sampel 30: 50.6372
+Rataan Sampel 31: 48.4367
+Rataan Sampel 32: 44.1291
+Rataan Sampel 33: 46.0086
+Rataan Sampel 34: 59.6038
+Rataan Sampel 35: 51.0654
+Rataan Sampel 36: 53.0623
+Rataan Sampel 37: 50.7429
+Rataan Sampel 38: 51.2018
+Rataan Sampel 39: 47.3138
+Rataan Sampel 40: 53.6316
+Rataan Sampel 41: 54.1647
+Rataan Sampel 42: 53.9873
+Rataan Sampel 43: 55.0022
+Rataan Sampel 44: 52.968
+Rataan Sampel 45: 46.7396
+Rataan Sampel 46: 47.5054
+Rataan Sampel 47: 51.1548
+Rataan Sampel 48: 54.8587
+Rataan Sampel 49: 47.0443
+Rataan Sampel 50: 42.3664
+Rataan Sampel 51: 39.3127
+Rataan Sampel 52: 50.2752
+Rataan Sampel 53: 50.3401
+Rataan Sampel 54: 47.8162
+Rataan Sampel 55: 49.8737
+Rataan Sampel 56: 41.0665
+Rataan Sampel 57: 49.3783
+Rataan Sampel 58: 44.4724
+Rataan Sampel 59: 57.7337
+Rataan Sampel 60: 52.3347
+Rataan Sampel 61: 46.3915
+Rataan Sampel 62: 45.1819
+Rataan Sampel 63: 45.7579
+Rataan Sampel 64: 46.2514
+Rataan Sampel 65: 49.8383
+Rataan Sampel 66: 53.8754
+Rataan Sampel 67: 47.0009
+Rataan Sampel 68: 50.4534
+Rataan Sampel 69: 46.0268
+Rataan Sampel 70: 43.8015
+Rataan Sampel 71: 44.4624
+Rataan Sampel 72: 51.1391
+Rataan Sampel 73: 48.1133
+Rataan Sampel 74: 51.3822
+Rataan Sampel 75: 47.0522
+Rataan Sampel 76: 40.1853
+Rataan Sampel 77: 51.5211
+Rataan Sampel 78: 44.3023
+Rataan Sampel 79: 45.3888
+Rataan Sampel 80: 49.6627
+Rataan Sampel 81: 52.4256
+Rataan Sampel 82: 48.1658
+Rataan Sampel 83: 46.2991
+Rataan Sampel 84: 49.6444
+Rataan Sampel 85: 53.3469
+Rataan Sampel 86: 50.5165
+Rataan Sampel 87: 50.2093
+Rataan Sampel 88: 46.7121
+Rataan Sampel 89: 51.1555
+Rataan Sampel 90: 50.6542
+Rataan Sampel 91: 51.7915
+Rataan Sampel 92: 53.9242
+Rataan Sampel 93: 50.435
+Rataan Sampel 94: 45.5536
+Rataan Sampel 95: 55.5593
+Rataan Sampel 96: 47.3527
+Rataan Sampel 97: 59.5394
+Rataan Sampel 98: 46.5263
+Rataan Sampel 99: 47.5674
+Rataan Sampel 100: 44.8092</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>49.1647</v>
+      </c>
+      <c r="E29" t="n">
+        <v>49.0897</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0751</v>
       </c>
     </row>
   </sheetData>
